--- a/NhryService/src/main/webapp/report/template/DeliverMilkTemplate.xlsx
+++ b/NhryService/src/main/webapp/report/template/DeliverMilkTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\coding\nhry-platform\NhryService\src\main\webapp\report\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\vbox\nhry-front-pl\NhryService\src\main\webapp\report\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>经销商：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,70 +79,38 @@
     <t>订户姓名</t>
   </si>
   <si>
-    <t>配送奶站：兴国奶站送奶到户(0108)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">兴国路1号01-06-1001 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>应送总数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上午配送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">姚杰 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新希望乳业配送路单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自营奶站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>味蕾游记原味-59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游记谷物+葡萄干口-90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供儿童鲜牛奶200ml -2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">游记谷物+葡萄干口(90瓶),新希望(琴牌)味蕾游记原味(2瓶),供儿童鲜牛奶200m(59瓶),
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  送奶员：郝二</t>
+    <t xml:space="preserve">  送奶员：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送奶站：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -367,7 +335,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -385,19 +359,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,157 +687,149 @@
   <dimension ref="B2:O25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
+    <col min="2" max="5" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="26.75" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
     <col min="11" max="11" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="38.25" customHeight="1">
-      <c r="B2" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23"/>
-    </row>
-    <row r="3" spans="2:15" ht="16.5">
-      <c r="B3" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+    <row r="2" spans="2:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="2:15" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="27"/>
-    </row>
-    <row r="4" spans="2:15" ht="16.5">
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="2:15" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="11"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="7"/>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="2:15" ht="16.5">
-      <c r="B5" s="24" t="s">
+    <row r="5" spans="2:15" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="16">
-        <v>42573</v>
-      </c>
+      <c r="H5" s="16"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="2:15" ht="16.5">
-      <c r="B6" s="24" t="s">
+    <row r="6" spans="2:15" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="2:15" ht="16.5" customHeight="1">
-      <c r="B7" s="24" t="s">
+    <row r="7" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="27"/>
-    </row>
-    <row r="8" spans="2:15" ht="16.5">
-      <c r="B8" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="2:15" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="2"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="27"/>
-    </row>
-    <row r="9" spans="2:15" ht="16.5">
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+    </row>
+    <row r="9" spans="2:15" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="14"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="2:15" ht="16.5">
-      <c r="B10" s="24" t="s">
+    <row r="10" spans="2:15" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="6" t="s">
         <v>10</v>
       </c>
@@ -889,67 +849,43 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="14.25" customHeight="1">
-      <c r="B11" s="17" t="s">
-        <v>16</v>
-      </c>
+    <row r="11" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="17"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="9">
-        <v>13800138000</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="2:15" ht="14.25" customHeight="1">
-      <c r="B12" s="17" t="s">
-        <v>16</v>
-      </c>
+    <row r="12" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="17"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="9">
-        <v>13800138000</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="2:15" ht="14.25" customHeight="1">
-      <c r="B13" s="17" t="s">
-        <v>16</v>
-      </c>
+    <row r="13" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="19"/>
-      <c r="F13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="9">
-        <v>13800138000</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="2:15" ht="14.25" customHeight="1">
+    <row r="14" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -961,7 +897,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="2:15" ht="14.25" customHeight="1">
+    <row r="15" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -973,7 +909,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="2:15" ht="14.25" customHeight="1">
+    <row r="16" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -985,7 +921,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="2:11" ht="14.25" customHeight="1">
+    <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -997,7 +933,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="2:11" ht="14.25" customHeight="1">
+    <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -1009,7 +945,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="2:11" ht="14.25" customHeight="1">
+    <row r="19" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -1021,7 +957,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="2:11" ht="14.25" customHeight="1">
+    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -1033,7 +969,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="2:11" ht="14.25" customHeight="1">
+    <row r="21" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -1045,7 +981,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" spans="2:11" ht="14.25" customHeight="1">
+    <row r="22" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -1057,7 +993,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="2:11" ht="14.25" customHeight="1">
+    <row r="23" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -1069,7 +1005,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="15"/>
     </row>
-    <row r="24" spans="2:11" ht="14.25" customHeight="1">
+    <row r="24" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="17"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -1081,7 +1017,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="2:11" ht="14.25" customHeight="1">
+    <row r="25" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -1095,12 +1031,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B24:E24"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:C6"/>
@@ -1109,21 +1050,16 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="H7:K9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H7:K9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NhryService/src/main/webapp/report/template/DeliverMilkTemplate.xlsx
+++ b/NhryService/src/main/webapp/report/template/DeliverMilkTemplate.xlsx
@@ -273,7 +273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -334,6 +334,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -352,20 +361,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,7 +690,7 @@
   <dimension ref="B2:O25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -703,36 +706,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="2:15" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="20" t="s">
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="21"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="2:15" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="11"/>
@@ -741,20 +744,20 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="7"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:15" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
         <v>8</v>
@@ -765,12 +768,12 @@
       <c r="K5" s="13"/>
     </row>
     <row r="6" spans="2:15" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
         <v>9</v>
@@ -781,34 +784,34 @@
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8" spans="2:15" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="2"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9" spans="2:15" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="14"/>
@@ -824,12 +827,12 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="2:15" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="6" t="s">
         <v>10</v>
       </c>
@@ -854,7 +857,7 @@
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="31"/>
       <c r="G11" s="9"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1031,17 +1034,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="H7:K9"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:C6"/>
@@ -1054,12 +1052,17 @@
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="H7:K9"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NhryService/src/main/webapp/report/template/DeliverMilkTemplate.xlsx
+++ b/NhryService/src/main/webapp/report/template/DeliverMilkTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\vbox\nhry-front-pl\NhryService\src\main\webapp\report\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\coding\nhry-platform-cbz\NhryService\src\main\webapp\report\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -99,18 +99,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -138,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -163,17 +163,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -254,26 +243,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,16 +259,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -301,74 +271,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,93 +639,93 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:O25"/>
+  <dimension ref="B2:O10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.375" customWidth="1"/>
-    <col min="2" max="5" width="8.375" customWidth="1"/>
-    <col min="6" max="6" width="26.75" customWidth="1"/>
-    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
     <col min="11" max="11" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="2:15" ht="38.25" customHeight="1">
+      <c r="B2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
     </row>
-    <row r="3" spans="2:15" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="2:15" ht="16.5">
+      <c r="B3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="8" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="23" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="24"/>
+      <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="2:15" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B4" s="11"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="12"/>
+    <row r="4" spans="2:15" ht="16.5">
+      <c r="B4" s="8"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="2:15" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="22" t="s">
+    <row r="5" spans="2:15" ht="16.5">
+      <c r="B5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="16"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="13"/>
+      <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="2:15" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="22" t="s">
+    <row r="6" spans="2:15" ht="16.5">
+      <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
         <v>9</v>
@@ -781,266 +733,79 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="13"/>
+      <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="22" t="s">
+    <row r="7" spans="2:15" ht="16.5" customHeight="1">
+      <c r="B7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="24"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="2:15" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="22" t="s">
+    <row r="8" spans="2:15" ht="16.5">
+      <c r="B8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="2:15" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="14"/>
+    <row r="9" spans="2:15" ht="16.5">
+      <c r="B9" s="11"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="2:15" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="22" t="s">
+    <row r="10" spans="2:15" ht="16.5">
+      <c r="B10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="6" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="15"/>
-    </row>
-    <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="15"/>
-    </row>
-    <row r="21" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="15"/>
-    </row>
-    <row r="22" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="15"/>
-    </row>
-    <row r="23" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="15"/>
-    </row>
-    <row r="24" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="15"/>
-    </row>
-    <row r="25" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="H7:K9"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B14:E14"/>
+  <mergeCells count="14">
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
@@ -1049,20 +814,12 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="H7:K9"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NhryService/src/main/webapp/report/template/DeliverMilkTemplate.xlsx
+++ b/NhryService/src/main/webapp/report/template/DeliverMilkTemplate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\coding\nhry-platform-cbz\NhryService\src\main\webapp\report\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\vbox\nhry-front-pl\NhryService\src\main\webapp\report\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,11 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>经销商：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>大口瓶</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,9 +60,6 @@
     <t>送奶时间</t>
   </si>
   <si>
-    <t>应配送产品简称-数量</t>
-  </si>
-  <si>
     <t>回瓶规格</t>
   </si>
   <si>
@@ -92,6 +85,18 @@
   </si>
   <si>
     <t>配送奶站：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日应配送产品简称-数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨日今送产品简称-数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,18 +104,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -249,7 +254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -290,6 +295,27 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -311,9 +337,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -639,187 +662,209 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:O10"/>
+  <dimension ref="B2:Q10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
+    <col min="2" max="5" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="26.75" style="18" customWidth="1"/>
+    <col min="7" max="7" width="26.75" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" customWidth="1"/>
+    <col min="12" max="12" width="10.25" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="38.25" customHeight="1">
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="27"/>
+    </row>
+    <row r="3" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="21"/>
     </row>
-    <row r="3" spans="2:15" ht="16.5">
-      <c r="B3" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="2:15" ht="16.5">
+    <row r="4" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="8"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="9"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="2:15" ht="16.5">
-      <c r="B5" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+    <row r="5" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="10"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="10"/>
     </row>
-    <row r="6" spans="2:15" ht="16.5">
-      <c r="B6" s="21" t="s">
+    <row r="7" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="10"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
     </row>
-    <row r="7" spans="2:15" ht="16.5" customHeight="1">
-      <c r="B7" s="21" t="s">
+    <row r="8" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
     </row>
-    <row r="8" spans="2:15" ht="16.5">
-      <c r="B8" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="2:15" ht="16.5">
+    <row r="9" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="11"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-      <c r="O9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="23"/>
+      <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="2:15" ht="16.5">
-      <c r="B10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="3" t="s">
+    <row r="10" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="J7:M9"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B3:G3"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="H7:K9"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NhryService/src/main/webapp/report/template/DeliverMilkTemplate.xlsx
+++ b/NhryService/src/main/webapp/report/template/DeliverMilkTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\vbox\nhry-front-pl\NhryService\src\main\webapp\report\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\coding\nhry-platform-cbz\NhryService\src\main\webapp\report\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -92,30 +92,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>昨日今送产品简称-数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨日配送产品简称-数量</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -665,24 +664,24 @@
   <dimension ref="B2:Q10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.375" customWidth="1"/>
-    <col min="2" max="5" width="8.375" customWidth="1"/>
-    <col min="6" max="6" width="26.75" style="18" customWidth="1"/>
-    <col min="7" max="7" width="26.75" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
-    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.875" customWidth="1"/>
-    <col min="12" max="12" width="10.25" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
     <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:17" ht="38.25" customHeight="1">
       <c r="B2" s="25" t="s">
         <v>14</v>
       </c>
@@ -698,7 +697,7 @@
       <c r="L2" s="26"/>
       <c r="M2" s="27"/>
     </row>
-    <row r="3" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17" ht="16.5">
       <c r="B3" s="28" t="s">
         <v>16</v>
       </c>
@@ -716,7 +715,7 @@
       </c>
       <c r="M3" s="21"/>
     </row>
-    <row r="4" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:17" ht="16.5">
       <c r="B4" s="8"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -730,7 +729,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:17" ht="16.5">
       <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
@@ -750,7 +749,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:17" ht="16.5">
       <c r="B6" s="19" t="s">
         <v>0</v>
       </c>
@@ -768,7 +767,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:17" ht="16.5" customHeight="1">
       <c r="B7" s="19" t="s">
         <v>1</v>
       </c>
@@ -786,7 +785,7 @@
       <c r="L7" s="20"/>
       <c r="M7" s="21"/>
     </row>
-    <row r="8" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:17" ht="16.5">
       <c r="B8" s="19" t="s">
         <v>2</v>
       </c>
@@ -802,7 +801,7 @@
       <c r="L8" s="20"/>
       <c r="M8" s="21"/>
     </row>
-    <row r="9" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:17" ht="16.5">
       <c r="B9" s="11"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -817,7 +816,7 @@
       <c r="M9" s="23"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:17" ht="16.5">
       <c r="B10" s="19" t="s">
         <v>11</v>
       </c>
@@ -825,13 +824,13 @@
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>

--- a/NhryService/src/main/webapp/report/template/DeliverMilkTemplate.xlsx
+++ b/NhryService/src/main/webapp/report/template/DeliverMilkTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\coding\nhry-platform-cbz\NhryService\src\main\webapp\report\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\vbox\nhry-front-pl\NhryService\src\main\webapp\report\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -88,33 +88,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今日应配送产品简称-数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>昨日配送产品简称-数量</t>
+    <t>昨日配送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日配送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -658,30 +659,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="B2:Q10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="G17" sqref="G17:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" style="18" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
+    <col min="2" max="5" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="26.75" style="18" customWidth="1"/>
+    <col min="7" max="7" width="26.75" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" customWidth="1"/>
+    <col min="12" max="12" width="10.25" customWidth="1"/>
     <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="38.25" customHeight="1">
+    <row r="2" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="25" t="s">
         <v>14</v>
       </c>
@@ -697,7 +695,7 @@
       <c r="L2" s="26"/>
       <c r="M2" s="27"/>
     </row>
-    <row r="3" spans="2:17" ht="16.5">
+    <row r="3" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="28" t="s">
         <v>16</v>
       </c>
@@ -715,7 +713,7 @@
       </c>
       <c r="M3" s="21"/>
     </row>
-    <row r="4" spans="2:17" ht="16.5">
+    <row r="4" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="8"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -729,7 +727,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="2:17" ht="16.5">
+    <row r="5" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
@@ -749,7 +747,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="2:17" ht="16.5">
+    <row r="6" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="19" t="s">
         <v>0</v>
       </c>
@@ -767,7 +765,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="2:17" ht="16.5" customHeight="1">
+    <row r="7" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>1</v>
       </c>
@@ -785,7 +783,7 @@
       <c r="L7" s="20"/>
       <c r="M7" s="21"/>
     </row>
-    <row r="8" spans="2:17" ht="16.5">
+    <row r="8" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="19" t="s">
         <v>2</v>
       </c>
@@ -801,7 +799,7 @@
       <c r="L8" s="20"/>
       <c r="M8" s="21"/>
     </row>
-    <row r="9" spans="2:17" ht="16.5">
+    <row r="9" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="11"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -816,7 +814,7 @@
       <c r="M9" s="23"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="2:17" ht="16.5">
+    <row r="10" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B10" s="19" t="s">
         <v>11</v>
       </c>
@@ -824,13 +822,13 @@
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -867,6 +865,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="72" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>